--- a/biology/Médecine/Prix_March_of_Dimes/Prix_March_of_Dimes.xlsx
+++ b/biology/Médecine/Prix_March_of_Dimes/Prix_March_of_Dimes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le prix March of Dimes en biologie du développement ("March of Dimes Prize for Developmental Biology ", renommé depuis 2017 March of Dimes et Richard B. Johnston, Jr., MD Prize in Developmental Biology à la mémoire de Richard B. Johnston, l'ancien directeur médical of March of Dimes)[1] est un prix scientifique décerné par l'association caritative américaine March of Dimes. Le prix est annuel et est doté de 150 000 $ depuis 2019. De plus, les lauréats reçoivent une médaille d'argent sur le modèle d'une pièce de dix cents à l' effigie de Franklin D. Roosevelt, fondateur de la March of Dimes (Marche des dix sous) .
+Le prix March of Dimes en biologie du développement ("March of Dimes Prize for Developmental Biology ", renommé depuis 2017 March of Dimes et Richard B. Johnston, Jr., MD Prize in Developmental Biology à la mémoire de Richard B. Johnston, l'ancien directeur médical of March of Dimes) est un prix scientifique décerné par l'association caritative américaine March of Dimes. Le prix est annuel et est doté de 150 000 $ depuis 2019. De plus, les lauréats reçoivent une médaille d'argent sur le modèle d'une pièce de dix cents à l' effigie de Franklin D. Roosevelt, fondateur de la March of Dimes (Marche des dix sous) .
 Il récompense des scientifiques dont les travaux ont permis des avancées majeures dans la compréhension de l'origine des malformations congénitales. Six des 39 lauréats ont également reçu un prix Nobel de physiologie ou de médecine par la suite (situation début 2021).
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des lauréats[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des lauréats
 1996 Béatrice Mintz, Ralph L. Brinster
 1997 Walter J. Gehring, David S. Hogness
 1998 Avant Solter
@@ -528,7 +542,7 @@
 2005 Mario R. Capecchi (Prix Nobel 2007), Oliver Smithies (Prix Nobel 2007)
 2006 Alexandre Varchavski
 2007 Anne McLaren, Janet Rossant
-2008 Philip A. Beachy, Clifford J. Tabin[3]
+2008 Philip A. Beachy, Clifford J. Tabin
 2009 Kevin P. Campbell, Louis M. Kunkel
 2010 Shinya Yamanaka (Prix Nobel 2012)
 2011 Patricia Ann Jacobs, David C. Page
@@ -537,7 +551,7 @@
 2014 Huda Zoghbi
 2015 Rudolf Jaenisch
 2016 Victor R. Ambros, Gary Ruvkun
-2017 C. David Allis[4]
+2017 C. David Allis
 2018 Allan C. Spradling
 2019 Myriam Hemberger
 2020 Susan Fisher
